--- a/biology/Zoologie/Australiformis/Australiformis.xlsx
+++ b/biology/Zoologie/Australiformis/Australiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Australiformis est un genre d'acanthocéphales de la famille des Moniliformidae qui, au stade adulte, parasite le tube digestif de marsupiaux en Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (29 décembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (29 décembre 2019) :
 Australiformis semoni (von Linstow, 1898)</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Gerald D. Schmidt et Stanley Joe Edmonds, « Australiformis semoni (Linstow, 1898) n. gen., n. comb. (Acanthocephala: Moniliformidae) from marsupials of Australia and New Guinea », Journal of Parasitology, Chicago, American Society of Parasitologists (d), vol. 75, no 2,‎ 1er avril 1989, p. 215-217 (ISSN 0022-3395 et 1937-2345, OCLC 1606759, PMID 2926590, DOI 10.2307/3282769, JSTOR 3282769)</t>
         </is>
